--- a/boost_forecast/res_YW_AR_general.xlsx
+++ b/boost_forecast/res_YW_AR_general.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\dockDoors\boost_forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{710DEBCB-6694-450F-A65D-F13F876F0B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5D1837-337D-4D8B-A97B-A9DE3695020E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="18024" windowHeight="12312" xr2:uid="{8629EDF9-C445-4FE1-ADBF-877955D952CE}"/>
+    <workbookView xWindow="3345" yWindow="1710" windowWidth="21375" windowHeight="11265" xr2:uid="{8629EDF9-C445-4FE1-ADBF-877955D952CE}"/>
   </bookViews>
   <sheets>
     <sheet name="res_YW_AR_125" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -80,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -938,12 +949,12 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -998,58 +1009,58 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <f ca="1">ROUND( _xlfn.NORM.INV(RAND(),$C2,D$13),1)+D$14</f>
-        <v>10.8</v>
+        <v>23.299999999999997</v>
       </c>
       <c r="E2">
         <f ca="1">ROUND( _xlfn.NORM.INV(RAND(),$C2,E$13),1)+E$14</f>
-        <v>13.8</v>
+        <v>22.8</v>
       </c>
       <c r="F2">
         <f ca="1">D2-1.5*$D$13</f>
-        <v>6.15</v>
+        <v>21.349999999999998</v>
       </c>
       <c r="G2">
         <f ca="1">D2+2*$D$13</f>
-        <v>17</v>
+        <v>25.9</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="F2:O2" ca="1" si="0">ROUND( _xlfn.NORM.INV(RAND(),$C2,H$13),1)+H$14</f>
-        <v>15.4</v>
+        <f t="shared" ref="H2:O2" ca="1" si="0">ROUND( _xlfn.NORM.INV(RAND(),$C2,H$13),1)+H$14</f>
+        <v>29.299999999999997</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.599999999999998</v>
+        <v>22.099999999999998</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>26.700000000000003</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.3</v>
+        <v>22.599999999999998</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.200000000000001</v>
+        <v>21.4</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>29.1</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.2</v>
+        <v>23.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1061,54 +1072,54 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:O11" ca="1" si="1">ROUND( _xlfn.NORM.INV(RAND(),$C3,D$13),1)+D$14</f>
-        <v>13.9</v>
+        <v>21.9</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>18.3</v>
+        <v>22.2</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F11" ca="1" si="2">D3-1.5*$D$13</f>
-        <v>9.25</v>
+        <v>19.95</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" ca="1" si="3">D3+2*$D$13</f>
-        <v>20.100000000000001</v>
+        <v>24.5</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>19.3</v>
+        <v>24.9</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>21.1</v>
+        <v>19.5</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="1"/>
-        <v>23.5</v>
+        <v>20.9</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>19.5</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="1"/>
-        <v>22.3</v>
+        <v>23.3</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="1"/>
-        <v>23.5</v>
+        <v>25.7</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="1"/>
-        <v>23.2</v>
+        <v>22.8</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>24.299999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1116,58 +1127,58 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>27.2</v>
+        <v>19.099999999999998</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>28.7</v>
+        <v>15.9</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>22.549999999999997</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>33.4</v>
+        <v>21.7</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>27.9</v>
+        <v>26.2</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>28.6</v>
+        <v>21.2</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="1"/>
-        <v>27.5</v>
+        <v>20.9</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>24.3</v>
+        <v>19.700000000000003</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>17.599999999999998</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>27.799999999999997</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="1"/>
-        <v>26.6</v>
+        <v>21.7</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="1"/>
-        <v>27.7</v>
+        <v>16.599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1175,58 +1186,58 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>22.35</v>
+        <v>14.45</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>33.200000000000003</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>30.2</v>
+        <v>20.5</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>15.600000000000001</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>31.8</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="1"/>
-        <v>26.7</v>
+        <v>14.5</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>27.799999999999997</v>
+        <v>15.4</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="1"/>
-        <v>27.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="1"/>
-        <v>27.2</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1234,58 +1245,58 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>26.7</v>
+        <v>25.599999999999998</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>26.5</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>22.049999999999997</v>
+        <v>23.65</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>32.9</v>
+        <v>28.2</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>32.6</v>
+        <v>24.4</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
-        <v>32.9</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>29.5</v>
+        <v>28</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="1"/>
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>26.4</v>
+        <v>28.5</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="1"/>
-        <v>29.3</v>
+        <v>31.400000000000002</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="1"/>
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1293,58 +1304,58 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>15.8</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>17.3</v>
+        <v>15.4</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>11.15</v>
+        <v>16.05</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>20.6</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>14.5</v>
+        <v>22.599999999999998</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>11.8</v>
+        <v>19.7</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>19.900000000000002</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="1"/>
-        <v>11.6</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>11.8</v>
+        <v>17.599999999999998</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="1"/>
-        <v>16.899999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="1"/>
-        <v>14.5</v>
+        <v>17.2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1352,58 +1363,58 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>19.5</v>
+        <v>23.4</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>21.3</v>
+        <v>23.5</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>14.85</v>
+        <v>21.45</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="1"/>
+        <v>22.9</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="1"/>
         <v>25.7</v>
       </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="1"/>
-        <v>23.099999999999998</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="1"/>
-        <v>23.2</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ca="1" si="1"/>
-        <v>25.799999999999997</v>
-      </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>14.1</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="1"/>
-        <v>17.7</v>
+        <v>25.5</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>23.799999999999997</v>
+        <v>25</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="1"/>
-        <v>26.6</v>
+        <v>25.7</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="1"/>
-        <v>20.399999999999999</v>
+        <v>22.299999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1411,58 +1422,58 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9</v>
+        <v>27.7</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>14.8</v>
+        <v>30.900000000000002</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>5.25</v>
+        <v>25.75</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>16.100000000000001</v>
+        <v>30.3</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>19.2</v>
+        <v>31.9</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>21.3</v>
+        <v>30.6</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="1"/>
-        <v>25.2</v>
+        <v>28.299999999999997</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>21.700000000000003</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="1"/>
-        <v>15.399999999999999</v>
+        <v>27.4</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>21.2</v>
+        <v>29.299999999999997</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="1"/>
-        <v>18.8</v>
+        <v>28.8</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>27.799999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1470,58 +1481,58 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>20.099999999999998</v>
+        <v>28.5</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>22.3</v>
+        <v>26.3</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>15.449999999999998</v>
+        <v>26.55</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>26.299999999999997</v>
+        <v>31.1</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>25.4</v>
+        <v>31.9</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>26.900000000000002</v>
+        <v>25.5</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>20.5</v>
+        <v>24.4</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>22.8</v>
+        <v>27.900000000000002</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="1"/>
-        <v>23.099999999999998</v>
+        <v>25.8</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>23.7</v>
+        <v>27.2</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="1"/>
-        <v>26.1</v>
+        <v>34.1</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="1"/>
-        <v>23.5</v>
+        <v>28.599999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1529,66 +1540,66 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>24.099999999999998</v>
+        <v>24.2</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>19.449999999999996</v>
+        <v>22.25</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>30.299999999999997</v>
+        <v>26.8</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>25.299999999999997</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="1"/>
-        <v>33.200000000000003</v>
+        <v>29.599999999999998</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>28.700000000000003</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="1"/>
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>27.4</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="1"/>
-        <v>22.7</v>
+        <v>28</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>27.299999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="D13">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="E13">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H13">
         <v>2.5</v>
@@ -1615,7 +1626,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
